--- a/KATO/Template/A0020_UriageInput.xlsx
+++ b/KATO/Template/A0020_UriageInput.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edion\Desktop\ネオリス様向け\KATO\KATO\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\suyama\00_project\KATO\KATO\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template1!$A$1:$T$90</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,22 +34,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　本　　　社　名古屋市中川区法華一丁目４番地</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　〒454-0933　TEL&lt;052&gt;353-2202 FAX&lt;052&gt;353-7447</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　岐阜営業所　羽島市福寿町間島八丁目１番地</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　〒501-6251　TEL&lt;058&gt;392-1870 FAX&lt;058&gt;392-1952</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>（yyyy年MM月dd日）</t>
     <rPh sb="5" eb="6">
       <t>ドシ</t>
@@ -145,13 +129,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>摘要</t>
-    <rPh sb="0" eb="2">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>合計金額</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -224,18 +201,44 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>摘　要</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　本　　　社　名古屋市中川区法華一丁目４番地</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　〒454-0933　TEL&lt;052&gt;353-2202 FAX&lt;052&gt;353-7447</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　岐阜営業所　羽島市福寿町間島八丁目１番地</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　〒501-6251　TEL&lt;058&gt;392-1870 FAX&lt;058&gt;392-1952</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.0"/>
     <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;mm&quot;月&quot;dd&quot;日&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +298,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
@@ -304,7 +313,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
@@ -320,7 +329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,10 +561,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -564,167 +573,179 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:I28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.4"/>
@@ -1063,10 +1084,10 @@
     <col min="9" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="12" width="0.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="3.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
     <col min="17" max="17" width="2.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.625" style="1" customWidth="1"/>
@@ -1074,7 +1095,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -1084,33 +1105,34 @@
       <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
     </row>
+    <row r="5" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1118,12 +1140,12 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
@@ -1138,12 +1160,12 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
       <c r="N7" s="4"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
@@ -1166,7 +1188,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="O9" s="16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -1183,7 +1205,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="O10" s="16" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -1192,7 +1214,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="O11" s="16" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -1201,18 +1223,18 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="16" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1233,355 +1255,355 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="66"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="67"/>
+      <c r="P14" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N14" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="36"/>
-      <c r="P14" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="36"/>
-    </row>
-    <row r="15" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
+    </row>
+    <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="41"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="26"/>
       <c r="K15" s="27"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="26"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="22"/>
-    </row>
-    <row r="16" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P15" s="30"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="32"/>
+    </row>
+    <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+    </row>
+    <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="26"/>
       <c r="K17" s="27"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="29"/>
       <c r="N17" s="26"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
-    </row>
-    <row r="18" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="32"/>
+    </row>
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="42"/>
+    </row>
+    <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="26"/>
       <c r="K19" s="27"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="32"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="26"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="22"/>
-    </row>
-    <row r="20" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P19" s="30"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+    </row>
+    <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="25"/>
-    </row>
-    <row r="21" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="42"/>
+    </row>
+    <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="41"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="26"/>
       <c r="K21" s="27"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="32"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="26"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="22"/>
-    </row>
-    <row r="22" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P21" s="30"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="32"/>
+    </row>
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="25"/>
-    </row>
-    <row r="23" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="41"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="26"/>
       <c r="K23" s="27"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="32"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="26"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-    </row>
-    <row r="24" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
+    </row>
+    <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="25"/>
-    </row>
-    <row r="25" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="42"/>
+    </row>
+    <row r="25" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
-      <c r="B25" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46"/>
+      <c r="B25" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="58"/>
+      <c r="O25" s="59"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="9"/>
       <c r="J26" s="8"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="54"/>
+      <c r="M26" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="60"/>
+      <c r="O26" s="61"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S26" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R26" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" s="75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="8"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-    </row>
-    <row r="28" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="8"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
+      <c r="M28" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="6"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-    </row>
-    <row r="29" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+    </row>
+    <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="8"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
     </row>
     <row r="30" spans="1:19" ht="12" x14ac:dyDescent="0.4">
       <c r="A30" s="9"/>
@@ -1604,7 +1626,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -1614,33 +1636,34 @@
       <c r="R32" s="13"/>
     </row>
     <row r="33" spans="1:19" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
+      <c r="A33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
     </row>
+    <row r="35" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -1648,14 +1671,14 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="H36" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
@@ -1670,12 +1693,12 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="4"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
@@ -1698,7 +1721,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.4">
       <c r="O39" s="16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P39" s="16"/>
       <c r="Q39" s="16"/>
@@ -1715,7 +1738,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="O40" s="16" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P40" s="16"/>
       <c r="Q40" s="16"/>
@@ -1724,7 +1747,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.4">
       <c r="O41" s="16" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
@@ -1733,18 +1756,18 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="16" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="P42" s="16"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1765,357 +1788,357 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="66"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="67"/>
+      <c r="P44" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N44" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="36"/>
-      <c r="P44" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="36"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="67"/>
+    </row>
+    <row r="45" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="41"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="26"/>
       <c r="K45" s="27"/>
       <c r="L45" s="28"/>
-      <c r="M45" s="32"/>
+      <c r="M45" s="29"/>
       <c r="N45" s="26"/>
       <c r="O45" s="28"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="22"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="32"/>
+    </row>
+    <row r="46" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="25"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="38"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="42"/>
+    </row>
+    <row r="47" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="41"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="26"/>
       <c r="K47" s="27"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="32"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="26"/>
       <c r="O47" s="28"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="22"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P47" s="30"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="32"/>
+    </row>
+    <row r="48" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="25"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="38"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="42"/>
+    </row>
+    <row r="49" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="41"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="26"/>
       <c r="K49" s="27"/>
       <c r="L49" s="28"/>
-      <c r="M49" s="32"/>
+      <c r="M49" s="29"/>
       <c r="N49" s="26"/>
       <c r="O49" s="28"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="22"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P49" s="30"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="32"/>
+    </row>
+    <row r="50" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="25"/>
-    </row>
-    <row r="51" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="42"/>
+    </row>
+    <row r="51" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="9"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="41"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25"/>
       <c r="J51" s="26"/>
       <c r="K51" s="27"/>
       <c r="L51" s="28"/>
-      <c r="M51" s="32"/>
+      <c r="M51" s="29"/>
       <c r="N51" s="26"/>
       <c r="O51" s="28"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="22"/>
-    </row>
-    <row r="52" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="P51" s="30"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="32"/>
+    </row>
+    <row r="52" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="9"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="25"/>
-    </row>
-    <row r="53" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="42"/>
+    </row>
+    <row r="53" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="41"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25"/>
       <c r="J53" s="26"/>
       <c r="K53" s="27"/>
       <c r="L53" s="28"/>
-      <c r="M53" s="32"/>
+      <c r="M53" s="29"/>
       <c r="N53" s="26"/>
       <c r="O53" s="28"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="22"/>
-    </row>
-    <row r="54" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="P53" s="30"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="32"/>
+    </row>
+    <row r="54" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="9"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="25"/>
-    </row>
-    <row r="55" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="42"/>
+    </row>
+    <row r="55" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="9"/>
-      <c r="B55" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N55" s="62"/>
-      <c r="O55" s="63"/>
+      <c r="B55" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="70"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="55"/>
+      <c r="O55" s="56"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
     </row>
-    <row r="56" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="9"/>
       <c r="J56" s="8"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="51" t="s">
-        <v>12</v>
+      <c r="M56" s="72" t="s">
+        <v>8</v>
       </c>
       <c r="N56" s="26"/>
       <c r="O56" s="28"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="S56" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R56" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="S56" s="75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="9"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="68"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="48"/>
       <c r="J57" s="8"/>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="31"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="38"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="50"/>
-    </row>
-    <row r="58" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+    </row>
+    <row r="58" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="71"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="51"/>
       <c r="J58" s="8"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
-      <c r="M58" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="N58" s="64"/>
-      <c r="O58" s="64"/>
+      <c r="M58" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="50"/>
-      <c r="S58" s="50"/>
-    </row>
-    <row r="59" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+    </row>
+    <row r="59" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="9"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="61"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
       <c r="J59" s="8"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -2125,33 +2148,34 @@
       <c r="R62" s="13"/>
     </row>
     <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A63" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
+      <c r="A63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
     </row>
     <row r="64" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
     </row>
+    <row r="65" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -2159,12 +2183,12 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
@@ -2179,12 +2203,12 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="4"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
@@ -2207,7 +2231,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
       <c r="O69" s="16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
@@ -2224,7 +2248,7 @@
       <c r="H70" s="17"/>
       <c r="I70" s="17"/>
       <c r="O70" s="16" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P70" s="16"/>
       <c r="Q70" s="16"/>
@@ -2233,7 +2257,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
       <c r="O71" s="16" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P71" s="16"/>
       <c r="Q71" s="16"/>
@@ -2242,18 +2266,18 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N72" s="4"/>
       <c r="O72" s="16" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="P72" s="16"/>
       <c r="Q72" s="16"/>
       <c r="R72" s="16"/>
       <c r="S72" s="16"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2274,372 +2298,478 @@
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="66"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="N74" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="O74" s="67"/>
+      <c r="P74" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="K74" s="35"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="N74" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="O74" s="36"/>
-      <c r="P74" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="36"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="67"/>
+    </row>
+    <row r="75" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="41"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="25"/>
       <c r="J75" s="26"/>
       <c r="K75" s="27"/>
       <c r="L75" s="28"/>
-      <c r="M75" s="32"/>
+      <c r="M75" s="29"/>
       <c r="N75" s="26"/>
       <c r="O75" s="28"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="22"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P75" s="30"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="32"/>
+    </row>
+    <row r="76" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="25"/>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="42"/>
+    </row>
+    <row r="77" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="41"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="25"/>
       <c r="J77" s="26"/>
       <c r="K77" s="27"/>
       <c r="L77" s="28"/>
-      <c r="M77" s="32"/>
+      <c r="M77" s="29"/>
       <c r="N77" s="26"/>
       <c r="O77" s="28"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="22"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P77" s="30"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="32"/>
+    </row>
+    <row r="78" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="12"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="25"/>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B78" s="33"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="42"/>
+    </row>
+    <row r="79" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="41"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="25"/>
       <c r="J79" s="26"/>
       <c r="K79" s="27"/>
       <c r="L79" s="28"/>
-      <c r="M79" s="32"/>
+      <c r="M79" s="29"/>
       <c r="N79" s="26"/>
       <c r="O79" s="28"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="22"/>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="P79" s="30"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="32"/>
+    </row>
+    <row r="80" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="25"/>
-    </row>
-    <row r="81" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="B80" s="33"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="42"/>
+    </row>
+    <row r="81" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="9"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="41"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="25"/>
       <c r="J81" s="26"/>
       <c r="K81" s="27"/>
       <c r="L81" s="28"/>
-      <c r="M81" s="32"/>
+      <c r="M81" s="29"/>
       <c r="N81" s="26"/>
       <c r="O81" s="28"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="21"/>
-      <c r="S81" s="22"/>
-    </row>
-    <row r="82" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="P81" s="30"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="32"/>
+    </row>
+    <row r="82" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="9"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="25"/>
-    </row>
-    <row r="83" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="42"/>
+    </row>
+    <row r="83" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="9"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="41"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="25"/>
       <c r="J83" s="26"/>
       <c r="K83" s="27"/>
       <c r="L83" s="28"/>
-      <c r="M83" s="32"/>
+      <c r="M83" s="29"/>
       <c r="N83" s="26"/>
       <c r="O83" s="28"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="21"/>
-      <c r="S83" s="22"/>
-    </row>
-    <row r="84" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="P83" s="30"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="32"/>
+    </row>
+    <row r="84" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="9"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="25"/>
-    </row>
-    <row r="85" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="42"/>
+    </row>
+    <row r="85" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="9"/>
-      <c r="B85" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="48"/>
-      <c r="K85" s="48"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N85" s="62"/>
-      <c r="O85" s="63"/>
+      <c r="B85" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="70"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85" s="55"/>
+      <c r="O85" s="56"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
     </row>
-    <row r="86" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="9"/>
       <c r="J86" s="8"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
-      <c r="M86" s="51" t="s">
-        <v>12</v>
+      <c r="M86" s="72" t="s">
+        <v>8</v>
       </c>
       <c r="N86" s="26"/>
       <c r="O86" s="28"/>
       <c r="P86" s="8"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="S86" s="75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="9"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="68"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="47"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="48"/>
       <c r="J87" s="8"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="52"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="31"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="38"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="6"/>
-      <c r="R87" s="65"/>
-      <c r="S87" s="50"/>
-    </row>
-    <row r="88" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="R87" s="14"/>
+      <c r="S87" s="15"/>
+    </row>
+    <row r="88" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="9"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="71"/>
+      <c r="B88" s="49"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="51"/>
       <c r="J88" s="8"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
-      <c r="M88" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="N88" s="64"/>
-      <c r="O88" s="64"/>
+      <c r="M88" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="N88" s="57"/>
+      <c r="O88" s="57"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="6"/>
-      <c r="R88" s="65"/>
-      <c r="S88" s="50"/>
-    </row>
-    <row r="89" spans="1:19" ht="12" x14ac:dyDescent="0.4">
+      <c r="R88" s="14"/>
+      <c r="S88" s="15"/>
+    </row>
+    <row r="89" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="9"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="60"/>
-      <c r="D89" s="60"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="61"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="54"/>
       <c r="J89" s="8"/>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="64"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="57"/>
+      <c r="O89" s="57"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="6"/>
-      <c r="R89" s="65"/>
-      <c r="S89" s="50"/>
+      <c r="R89" s="14"/>
+      <c r="S89" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="N86:O87"/>
-    <mergeCell ref="R87:R89"/>
-    <mergeCell ref="S87:S89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="N88:O89"/>
-    <mergeCell ref="B83:I84"/>
-    <mergeCell ref="J83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:O84"/>
-    <mergeCell ref="P83:S84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:L85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B87:I88"/>
-    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M7"/>
+    <mergeCell ref="O6:S8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="P15:S16"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="B15:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B19:H20"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="P23:S24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:S20"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A33:S33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:M37"/>
+    <mergeCell ref="O36:S38"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="B27:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="B45:I46"/>
+    <mergeCell ref="J45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:O46"/>
+    <mergeCell ref="P45:S46"/>
+    <mergeCell ref="B47:I48"/>
+    <mergeCell ref="J47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:O48"/>
+    <mergeCell ref="P47:S48"/>
+    <mergeCell ref="B53:I54"/>
+    <mergeCell ref="J53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:O54"/>
+    <mergeCell ref="P53:S54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="B49:I50"/>
+    <mergeCell ref="J49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:O50"/>
+    <mergeCell ref="P49:S50"/>
+    <mergeCell ref="B51:I52"/>
+    <mergeCell ref="J51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:O52"/>
+    <mergeCell ref="P51:S52"/>
+    <mergeCell ref="A63:S63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:M67"/>
+    <mergeCell ref="O66:S68"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="S57:S59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="B57:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="O70:S70"/>
+    <mergeCell ref="O71:S71"/>
+    <mergeCell ref="O72:S72"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P74:S74"/>
     <mergeCell ref="M81:M82"/>
     <mergeCell ref="N81:O82"/>
     <mergeCell ref="P81:S82"/>
@@ -2660,132 +2790,26 @@
     <mergeCell ref="P79:S80"/>
     <mergeCell ref="B81:I82"/>
     <mergeCell ref="J81:L82"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="O70:S70"/>
-    <mergeCell ref="O71:S71"/>
-    <mergeCell ref="O72:S72"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P74:S74"/>
-    <mergeCell ref="A63:S63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:M67"/>
-    <mergeCell ref="O66:S68"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="S57:S59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="B57:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B53:I54"/>
-    <mergeCell ref="J53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:O54"/>
-    <mergeCell ref="P53:S54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="B49:I50"/>
-    <mergeCell ref="J49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:O50"/>
-    <mergeCell ref="P49:S50"/>
-    <mergeCell ref="B51:I52"/>
-    <mergeCell ref="J51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:O52"/>
-    <mergeCell ref="P51:S52"/>
-    <mergeCell ref="B45:I46"/>
-    <mergeCell ref="J45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:O46"/>
-    <mergeCell ref="P45:S46"/>
-    <mergeCell ref="B47:I48"/>
-    <mergeCell ref="J47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:O48"/>
-    <mergeCell ref="P47:S48"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="A33:S33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:M37"/>
-    <mergeCell ref="O36:S38"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="S27:S29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="B27:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="P23:S24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:S20"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="P21:S22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B19:H20"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="P15:S16"/>
-    <mergeCell ref="J17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="B15:H16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M7"/>
-    <mergeCell ref="O6:S8"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="N86:O87"/>
+    <mergeCell ref="R87:R89"/>
+    <mergeCell ref="S87:S89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="N88:O89"/>
+    <mergeCell ref="B83:I84"/>
+    <mergeCell ref="J83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:O84"/>
+    <mergeCell ref="P83:S84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:L85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B87:I88"/>
+    <mergeCell ref="B89:I89"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KATO/Template/A0020_UriageInput.xlsx
+++ b/KATO/Template/A0020_UriageInput.xlsx
@@ -298,13 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
@@ -314,6 +307,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
@@ -561,190 +561,190 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.4"/>
@@ -1104,55 +1104,55 @@
       </c>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-    </row>
-    <row r="4" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+    </row>
+    <row r="4" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1160,79 +1160,79 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="O10" s="16" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="O10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
     </row>
     <row r="13" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
@@ -1257,265 +1257,265 @@
     </row>
     <row r="14" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="65" t="s">
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68" t="s">
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="65" t="s">
+      <c r="O14" s="36"/>
+      <c r="P14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="67"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
     </row>
     <row r="15" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="20"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="41"/>
       <c r="J15" s="26"/>
       <c r="K15" s="27"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
+      <c r="M15" s="32"/>
       <c r="N15" s="26"/>
       <c r="O15" s="28"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="32"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="20"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="26"/>
       <c r="K17" s="27"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="26"/>
       <c r="O17" s="28"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="32"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="22"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="42"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="20"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="26"/>
       <c r="K19" s="27"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="26"/>
       <c r="O19" s="28"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="32"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22"/>
     </row>
     <row r="20" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="42"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="9"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="20"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="26"/>
       <c r="K21" s="27"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="26"/>
       <c r="O21" s="28"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="32"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="22"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="20"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="26"/>
       <c r="K23" s="27"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="26"/>
       <c r="O23" s="28"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="32"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="9"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="71" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="58"/>
-      <c r="O25" s="59"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -1526,84 +1526,84 @@
       <c r="J26" s="8"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="72" t="s">
+      <c r="M26" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="60"/>
-      <c r="O26" s="61"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="54"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="75" t="s">
+      <c r="R26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="75" t="s">
+      <c r="S26" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="9"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="8"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
     </row>
     <row r="28" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="9"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="8"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="74" t="s">
+      <c r="M28" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="6"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
     </row>
     <row r="29" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="8"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
     </row>
     <row r="30" spans="1:19" ht="12" x14ac:dyDescent="0.4">
       <c r="A30" s="9"/>
@@ -1626,7 +1626,7 @@
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -1635,57 +1635,57 @@
       </c>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="1:19" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.4">
+      <c r="A33" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:19" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+    </row>
+    <row r="37" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1693,79 +1693,79 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
     </row>
     <row r="38" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="O39" s="16" t="s">
+      <c r="O39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
     </row>
     <row r="40" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="O40" s="16" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="O40" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="O41" s="16" t="s">
+      <c r="O41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N42" s="4"/>
-      <c r="O42" s="16" t="s">
+      <c r="O42" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
     </row>
     <row r="43" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
@@ -1790,265 +1790,265 @@
     </row>
     <row r="44" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="65" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="66"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="68" t="s">
+      <c r="K44" s="35"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N44" s="65" t="s">
+      <c r="N44" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O44" s="67"/>
-      <c r="P44" s="65" t="s">
+      <c r="O44" s="36"/>
+      <c r="P44" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="67"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="36"/>
     </row>
     <row r="45" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="26"/>
       <c r="K45" s="27"/>
       <c r="L45" s="28"/>
-      <c r="M45" s="29"/>
+      <c r="M45" s="32"/>
       <c r="N45" s="26"/>
       <c r="O45" s="28"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="32"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="22"/>
     </row>
     <row r="46" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="42"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="25"/>
     </row>
     <row r="47" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="6"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="26"/>
       <c r="K47" s="27"/>
       <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
+      <c r="M47" s="32"/>
       <c r="N47" s="26"/>
       <c r="O47" s="28"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="32"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="22"/>
     </row>
     <row r="48" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="42"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="25"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="68"/>
       <c r="J49" s="26"/>
       <c r="K49" s="27"/>
       <c r="L49" s="28"/>
-      <c r="M49" s="29"/>
+      <c r="M49" s="32"/>
       <c r="N49" s="26"/>
       <c r="O49" s="28"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="32"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="22"/>
     </row>
     <row r="50" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="42"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="9"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="25"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="68"/>
       <c r="J51" s="26"/>
       <c r="K51" s="27"/>
       <c r="L51" s="28"/>
-      <c r="M51" s="29"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="26"/>
       <c r="O51" s="28"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="32"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="22"/>
     </row>
     <row r="52" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="9"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="42"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="25"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="26"/>
       <c r="K53" s="27"/>
       <c r="L53" s="28"/>
-      <c r="M53" s="29"/>
+      <c r="M53" s="32"/>
       <c r="N53" s="26"/>
       <c r="O53" s="28"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="32"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="22"/>
     </row>
     <row r="54" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="9"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="42"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="69"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="25"/>
     </row>
     <row r="55" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="9"/>
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="70"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="71" t="s">
+      <c r="C55" s="44"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N55" s="55"/>
-      <c r="O55" s="56"/>
+      <c r="N55" s="70"/>
+      <c r="O55" s="71"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
@@ -2059,86 +2059,86 @@
       <c r="J56" s="8"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="72" t="s">
+      <c r="M56" s="51" t="s">
         <v>8</v>
       </c>
       <c r="N56" s="26"/>
       <c r="O56" s="28"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="75" t="s">
+      <c r="R56" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S56" s="75" t="s">
+      <c r="S56" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="9"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="48"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="61"/>
       <c r="J57" s="8"/>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="38"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="31"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
     </row>
     <row r="58" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="9"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="51"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="64"/>
       <c r="J58" s="8"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
-      <c r="M58" s="74" t="s">
+      <c r="M58" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
+      <c r="R58" s="50"/>
+      <c r="S58" s="50"/>
     </row>
     <row r="59" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="9"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="54"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="67"/>
       <c r="J59" s="8"/>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
-      <c r="M59" s="74"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-    </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.4">
+      <c r="R59" s="50"/>
+      <c r="S59" s="50"/>
+    </row>
+    <row r="61" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
@@ -2147,55 +2147,55 @@
       </c>
       <c r="R62" s="13"/>
     </row>
-    <row r="63" spans="1:19" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A63" s="19" t="s">
+    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.4">
+      <c r="A63" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+      <c r="J63" s="75"/>
+      <c r="K63" s="75"/>
+      <c r="L63" s="75"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="75"/>
+      <c r="Q63" s="75"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="75"/>
     </row>
     <row r="64" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:19" ht="3" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65" spans="1:19" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+    </row>
+    <row r="67" spans="1:19" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2203,79 +2203,79 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
       <c r="N67" s="4"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
     </row>
     <row r="68" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="O69" s="16" t="s">
+      <c r="O69" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
     </row>
     <row r="70" spans="1:19" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="O70" s="16" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="O70" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="O71" s="16" t="s">
+      <c r="O71" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B72" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N72" s="4"/>
-      <c r="O72" s="16" t="s">
+      <c r="O72" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
     </row>
     <row r="73" spans="1:19" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5"/>
@@ -2300,265 +2300,265 @@
     </row>
     <row r="74" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5"/>
-      <c r="B74" s="65" t="s">
+      <c r="B74" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="67"/>
-      <c r="J74" s="65" t="s">
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K74" s="66"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="68" t="s">
+      <c r="K74" s="35"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N74" s="65" t="s">
+      <c r="N74" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="O74" s="67"/>
-      <c r="P74" s="65" t="s">
+      <c r="O74" s="36"/>
+      <c r="P74" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Q74" s="66"/>
-      <c r="R74" s="66"/>
-      <c r="S74" s="67"/>
+      <c r="Q74" s="35"/>
+      <c r="R74" s="35"/>
+      <c r="S74" s="36"/>
     </row>
     <row r="75" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="25"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="68"/>
       <c r="J75" s="26"/>
       <c r="K75" s="27"/>
       <c r="L75" s="28"/>
-      <c r="M75" s="29"/>
+      <c r="M75" s="32"/>
       <c r="N75" s="26"/>
       <c r="O75" s="28"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="31"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="32"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="22"/>
     </row>
     <row r="76" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="41"/>
-      <c r="R76" s="41"/>
-      <c r="S76" s="42"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="25"/>
     </row>
     <row r="77" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="25"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="68"/>
       <c r="J77" s="26"/>
       <c r="K77" s="27"/>
       <c r="L77" s="28"/>
-      <c r="M77" s="29"/>
+      <c r="M77" s="32"/>
       <c r="N77" s="26"/>
       <c r="O77" s="28"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="32"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="22"/>
     </row>
     <row r="78" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="12"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="38"/>
-      <c r="M78" s="39"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="42"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="25"/>
     </row>
     <row r="79" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="25"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="68"/>
       <c r="J79" s="26"/>
       <c r="K79" s="27"/>
       <c r="L79" s="28"/>
-      <c r="M79" s="29"/>
+      <c r="M79" s="32"/>
       <c r="N79" s="26"/>
       <c r="O79" s="28"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="32"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="22"/>
     </row>
     <row r="80" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="41"/>
-      <c r="S80" s="42"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="33"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="25"/>
     </row>
     <row r="81" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="9"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="25"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="68"/>
       <c r="J81" s="26"/>
       <c r="K81" s="27"/>
       <c r="L81" s="28"/>
-      <c r="M81" s="29"/>
+      <c r="M81" s="32"/>
       <c r="N81" s="26"/>
       <c r="O81" s="28"/>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="31"/>
-      <c r="S81" s="32"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="21"/>
+      <c r="S81" s="22"/>
     </row>
     <row r="82" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="9"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="36"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="42"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="25"/>
     </row>
     <row r="83" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="9"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="25"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="68"/>
       <c r="J83" s="26"/>
       <c r="K83" s="27"/>
       <c r="L83" s="28"/>
-      <c r="M83" s="29"/>
+      <c r="M83" s="32"/>
       <c r="N83" s="26"/>
       <c r="O83" s="28"/>
-      <c r="P83" s="30"/>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="32"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="21"/>
+      <c r="S83" s="22"/>
     </row>
     <row r="84" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="9"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="35"/>
-      <c r="J84" s="36"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="38"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="42"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="25"/>
     </row>
     <row r="85" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="9"/>
-      <c r="B85" s="69" t="s">
+      <c r="B85" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="70"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="71" t="s">
+      <c r="C85" s="44"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N85" s="55"/>
-      <c r="O85" s="56"/>
+      <c r="N85" s="70"/>
+      <c r="O85" s="71"/>
       <c r="P85" s="8"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
@@ -2569,7 +2569,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
-      <c r="M86" s="72" t="s">
+      <c r="M86" s="51" t="s">
         <v>8</v>
       </c>
       <c r="N86" s="26"/>
@@ -2577,199 +2577,93 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="75" t="s">
+      <c r="S86" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="9"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="48"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="61"/>
       <c r="J87" s="8"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
-      <c r="M87" s="73"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="38"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="31"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="6"/>
-      <c r="R87" s="14"/>
-      <c r="S87" s="15"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="74"/>
     </row>
     <row r="88" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="9"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="51"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="64"/>
       <c r="J88" s="8"/>
       <c r="K88" s="11"/>
       <c r="L88" s="11"/>
-      <c r="M88" s="74" t="s">
+      <c r="M88" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="N88" s="57"/>
-      <c r="O88" s="57"/>
+      <c r="N88" s="72"/>
+      <c r="O88" s="72"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="6"/>
-      <c r="R88" s="14"/>
-      <c r="S88" s="15"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="74"/>
     </row>
     <row r="89" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="9"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="54"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="67"/>
       <c r="J89" s="8"/>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
-      <c r="M89" s="74"/>
-      <c r="N89" s="57"/>
-      <c r="O89" s="57"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="72"/>
+      <c r="O89" s="72"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="6"/>
-      <c r="R89" s="14"/>
-      <c r="S89" s="15"/>
+      <c r="R89" s="73"/>
+      <c r="S89" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="158">
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M7"/>
-    <mergeCell ref="O6:S8"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="P15:S16"/>
-    <mergeCell ref="J17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="P17:S18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="B15:H16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="J19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B19:H20"/>
-    <mergeCell ref="B21:H22"/>
-    <mergeCell ref="B23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:O24"/>
-    <mergeCell ref="P23:S24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="R27:R29"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="P19:S20"/>
-    <mergeCell ref="J21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:O22"/>
-    <mergeCell ref="P21:S22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="A33:S33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:M37"/>
-    <mergeCell ref="O36:S38"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="S27:S29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:O27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="B27:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="B45:I46"/>
-    <mergeCell ref="J45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:O46"/>
-    <mergeCell ref="P45:S46"/>
-    <mergeCell ref="B47:I48"/>
-    <mergeCell ref="J47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:O48"/>
-    <mergeCell ref="P47:S48"/>
-    <mergeCell ref="B53:I54"/>
-    <mergeCell ref="J53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:O54"/>
-    <mergeCell ref="P53:S54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:L55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="B49:I50"/>
-    <mergeCell ref="J49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:O50"/>
-    <mergeCell ref="P49:S50"/>
-    <mergeCell ref="B51:I52"/>
-    <mergeCell ref="J51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:O52"/>
-    <mergeCell ref="P51:S52"/>
-    <mergeCell ref="A63:S63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:M67"/>
-    <mergeCell ref="O66:S68"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="R57:R59"/>
-    <mergeCell ref="S57:S59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="B57:I58"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="O69:S69"/>
-    <mergeCell ref="B70:I70"/>
-    <mergeCell ref="O70:S70"/>
-    <mergeCell ref="O71:S71"/>
-    <mergeCell ref="O72:S72"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="J74:L74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="N86:O87"/>
+    <mergeCell ref="R87:R89"/>
+    <mergeCell ref="S87:S89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="N88:O89"/>
+    <mergeCell ref="B83:I84"/>
+    <mergeCell ref="J83:L84"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:O84"/>
+    <mergeCell ref="P83:S84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:L85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="B87:I88"/>
+    <mergeCell ref="B89:I89"/>
     <mergeCell ref="M81:M82"/>
     <mergeCell ref="N81:O82"/>
     <mergeCell ref="P81:S82"/>
@@ -2790,26 +2684,132 @@
     <mergeCell ref="P79:S80"/>
     <mergeCell ref="B81:I82"/>
     <mergeCell ref="J81:L82"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="N86:O87"/>
-    <mergeCell ref="R87:R89"/>
-    <mergeCell ref="S87:S89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="N88:O89"/>
-    <mergeCell ref="B83:I84"/>
-    <mergeCell ref="J83:L84"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:O84"/>
-    <mergeCell ref="P83:S84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:L85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="B87:I88"/>
-    <mergeCell ref="B89:I89"/>
+    <mergeCell ref="O69:S69"/>
+    <mergeCell ref="B70:I70"/>
+    <mergeCell ref="O70:S70"/>
+    <mergeCell ref="O71:S71"/>
+    <mergeCell ref="O72:S72"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P74:S74"/>
+    <mergeCell ref="A63:S63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:M67"/>
+    <mergeCell ref="O66:S68"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="R57:R59"/>
+    <mergeCell ref="S57:S59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="B57:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B53:I54"/>
+    <mergeCell ref="J53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:O54"/>
+    <mergeCell ref="P53:S54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:L55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="B49:I50"/>
+    <mergeCell ref="J49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:O50"/>
+    <mergeCell ref="P49:S50"/>
+    <mergeCell ref="B51:I52"/>
+    <mergeCell ref="J51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:O52"/>
+    <mergeCell ref="P51:S52"/>
+    <mergeCell ref="B45:I46"/>
+    <mergeCell ref="J45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:O46"/>
+    <mergeCell ref="P45:S46"/>
+    <mergeCell ref="B47:I48"/>
+    <mergeCell ref="J47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:O48"/>
+    <mergeCell ref="P47:S48"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="A33:S33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:M37"/>
+    <mergeCell ref="O36:S38"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="S27:S29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="B27:I28"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="P23:S24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="R27:R29"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="P19:S20"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="P21:S22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B19:H20"/>
+    <mergeCell ref="B21:H22"/>
+    <mergeCell ref="B23:H24"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:O24"/>
+    <mergeCell ref="P15:S16"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="P17:S18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="B15:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M7"/>
+    <mergeCell ref="O6:S8"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KATO/Template/A0020_UriageInput.xlsx
+++ b/KATO/Template/A0020_UriageInput.xlsx
@@ -588,203 +588,203 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1138,7 +1138,7 @@
     <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.4">
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Q2" s="14"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
@@ -1151,49 +1151,49 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
@@ -1203,85 +1203,85 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="O10" s="63" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="O10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O11" s="63" t="s">
+      <c r="O11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -1307,276 +1307,276 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="65" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="67"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="65" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="67"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="22"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="34"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="42"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="42"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="22"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="29"/>
     </row>
     <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="26"/>
     </row>
     <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="22"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="34"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="29"/>
     </row>
     <row r="25" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="18" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -1585,26 +1585,26 @@
     </row>
     <row r="26" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="70" t="s">
+      <c r="R26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="71"/>
+      <c r="S26" s="56"/>
       <c r="T26" s="17" t="s">
         <v>12</v>
       </c>
@@ -1614,86 +1614,86 @@
       <c r="J27" s="7"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="57"/>
     </row>
     <row r="28" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="7"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="60"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="69"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="57"/>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="7"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="75"/>
-      <c r="T29" s="69"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="57"/>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="7"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="69"/>
-    </row>
-    <row r="31" spans="1:20" ht="12" x14ac:dyDescent="0.4">
+      <c r="R30" s="73"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="57"/>
+    </row>
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1715,7 +1715,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:20" ht="12" x14ac:dyDescent="0.4">
@@ -1731,51 +1731,51 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="78" t="s">
+      <c r="H34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
       <c r="T34" s="13"/>
     </row>
     <row r="35" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="68" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
     </row>
     <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
@@ -1785,85 +1785,85 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O40" s="63" t="s">
+      <c r="O40" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
     </row>
     <row r="41" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="O41" s="63" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="O41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O42" s="63" t="s">
+      <c r="O42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="O43" s="63" t="s">
+      <c r="O43" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="63"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
     </row>
     <row r="44" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
@@ -1889,276 +1889,276 @@
     </row>
     <row r="45" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="65" t="s">
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="66"/>
-      <c r="L45" s="67"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="40"/>
       <c r="M45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="65" t="s">
+      <c r="N45" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O45" s="67"/>
-      <c r="P45" s="65" t="s">
+      <c r="O45" s="40"/>
+      <c r="P45" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="67"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="40"/>
     </row>
     <row r="46" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="39"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="42"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="29"/>
     </row>
     <row r="48" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="39"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="26"/>
     </row>
     <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="22"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="33"/>
       <c r="K49" s="34"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="42"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="29"/>
     </row>
     <row r="50" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="39"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="22"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="33"/>
       <c r="K51" s="34"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="42"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="29"/>
     </row>
     <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="39"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="26"/>
     </row>
     <row r="53" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="22"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="33"/>
       <c r="K53" s="34"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="42"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="29"/>
     </row>
     <row r="54" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="39"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="26"/>
     </row>
     <row r="55" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="22"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="33"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="42"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="29"/>
     </row>
     <row r="56" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="18" t="s">
+      <c r="C56" s="54"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N56" s="55"/>
-      <c r="O56" s="56"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="51"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -2167,26 +2167,26 @@
     </row>
     <row r="57" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="60"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="53"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="70" t="s">
+      <c r="R57" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="S57" s="71"/>
+      <c r="S57" s="56"/>
       <c r="T57" s="17" t="s">
         <v>12</v>
       </c>
@@ -2196,84 +2196,84 @@
       <c r="J58" s="7"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="18" t="s">
+      <c r="M58" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="20"/>
-      <c r="O58" s="21"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="72"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="69"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="57"/>
     </row>
     <row r="59" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="45"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="62"/>
       <c r="J59" s="7"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="23"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="35"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="75"/>
-      <c r="T59" s="69"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="72"/>
+      <c r="T59" s="57"/>
     </row>
     <row r="60" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="65"/>
       <c r="J60" s="7"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="25" t="s">
+      <c r="M60" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="75"/>
-      <c r="T60" s="69"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="57"/>
     </row>
     <row r="61" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="51"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="7"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="76"/>
-      <c r="S61" s="77"/>
-      <c r="T61" s="69"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="57"/>
     </row>
     <row r="63" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J63" s="2"/>
@@ -2291,49 +2291,49 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="78" t="s">
+      <c r="H65" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="78"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R65" s="79"/>
-      <c r="S65" s="79"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
       <c r="T65" s="13"/>
     </row>
     <row r="66" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="63"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
     </row>
     <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3"/>
@@ -2343,85 +2343,85 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="63"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="63"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O71" s="63" t="s">
+      <c r="O71" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="63"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
     </row>
     <row r="72" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="O72" s="63" t="s">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="O72" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P72" s="63"/>
-      <c r="Q72" s="63"/>
-      <c r="R72" s="63"/>
-      <c r="S72" s="63"/>
-      <c r="T72" s="63"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O73" s="63" t="s">
+      <c r="O73" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="63"/>
-      <c r="T73" s="63"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N74" s="3"/>
-      <c r="O74" s="63" t="s">
+      <c r="O74" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P74" s="63"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="63"/>
-      <c r="T74" s="63"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
     </row>
     <row r="75" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
@@ -2447,276 +2447,276 @@
     </row>
     <row r="76" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="65" t="s">
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="66"/>
-      <c r="L76" s="67"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="40"/>
       <c r="M76" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="65" t="s">
+      <c r="N76" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O76" s="67"/>
-      <c r="P76" s="65" t="s">
+      <c r="O76" s="40"/>
+      <c r="P76" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
-      <c r="S76" s="66"/>
-      <c r="T76" s="67"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="40"/>
     </row>
     <row r="77" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="39"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="26"/>
     </row>
     <row r="78" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="22"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="33"/>
       <c r="K78" s="34"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="42"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="29"/>
     </row>
     <row r="79" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="39"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="26"/>
     </row>
     <row r="80" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="22"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="33"/>
       <c r="K80" s="34"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="41"/>
-      <c r="S80" s="41"/>
-      <c r="T80" s="42"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="29"/>
     </row>
     <row r="81" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="39"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="26"/>
     </row>
     <row r="82" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="22"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="33"/>
       <c r="K82" s="34"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="42"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="29"/>
     </row>
     <row r="83" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="39"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="26"/>
     </row>
     <row r="84" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="22"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="33"/>
       <c r="K84" s="34"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="42"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="29"/>
     </row>
     <row r="85" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="39"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="26"/>
     </row>
     <row r="86" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="22"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="33"/>
       <c r="K86" s="34"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="42"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="29"/>
     </row>
     <row r="87" spans="1:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="18" t="s">
+      <c r="C87" s="54"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N87" s="55"/>
-      <c r="O87" s="56"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="51"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
@@ -2725,164 +2725,252 @@
     </row>
     <row r="88" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="58"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="80"/>
+      <c r="O88" s="81"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-      <c r="S88" s="61" t="s">
+      <c r="S88" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="T88" s="61"/>
+      <c r="T88" s="82"/>
     </row>
     <row r="89" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="60"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="53"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-      <c r="S89" s="62"/>
-      <c r="T89" s="62"/>
+      <c r="S89" s="83"/>
+      <c r="T89" s="83"/>
     </row>
     <row r="90" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8"/>
       <c r="J90" s="7"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
-      <c r="M90" s="18" t="s">
+      <c r="M90" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N90" s="20"/>
-      <c r="O90" s="21"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="32"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="6"/>
-      <c r="S90" s="62"/>
-      <c r="T90" s="62"/>
+      <c r="S90" s="83"/>
+      <c r="T90" s="83"/>
     </row>
     <row r="91" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="45"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="62"/>
       <c r="J91" s="7"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="23"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="35"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="5"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="62"/>
-      <c r="T91" s="62"/>
+      <c r="R91" s="78"/>
+      <c r="S91" s="83"/>
+      <c r="T91" s="83"/>
     </row>
     <row r="92" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="48"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="65"/>
       <c r="J92" s="7"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
-      <c r="M92" s="25" t="s">
+      <c r="M92" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="5"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="62"/>
-      <c r="T92" s="62"/>
+      <c r="R92" s="78"/>
+      <c r="S92" s="83"/>
+      <c r="T92" s="83"/>
     </row>
     <row r="93" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="51"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="7"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="5"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="62"/>
-      <c r="T93" s="62"/>
+      <c r="R93" s="78"/>
+      <c r="S93" s="83"/>
+      <c r="T93" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M7"/>
-    <mergeCell ref="O6:T8"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="P15:T16"/>
-    <mergeCell ref="J17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="P17:T18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="B15:H16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="N90:O91"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:O93"/>
+    <mergeCell ref="B85:I86"/>
+    <mergeCell ref="J85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:O86"/>
+    <mergeCell ref="P85:T86"/>
+    <mergeCell ref="B91:I92"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="B87:C89"/>
+    <mergeCell ref="D87:L89"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="N87:O89"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="S89:T93"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:O84"/>
+    <mergeCell ref="P83:T84"/>
+    <mergeCell ref="B77:I78"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:T78"/>
+    <mergeCell ref="B79:I80"/>
+    <mergeCell ref="J79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:T80"/>
+    <mergeCell ref="B81:I82"/>
+    <mergeCell ref="J81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:O82"/>
+    <mergeCell ref="P81:T82"/>
+    <mergeCell ref="B83:I84"/>
+    <mergeCell ref="J83:L84"/>
+    <mergeCell ref="O71:T71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="O72:T72"/>
+    <mergeCell ref="O73:T73"/>
+    <mergeCell ref="O74:T74"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:M69"/>
+    <mergeCell ref="O68:T70"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="B59:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="T58:T61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S61"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="B54:I55"/>
+    <mergeCell ref="J54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:T55"/>
+    <mergeCell ref="B50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="P50:T51"/>
+    <mergeCell ref="B52:I53"/>
+    <mergeCell ref="J52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="P52:T53"/>
+    <mergeCell ref="B46:I47"/>
+    <mergeCell ref="J46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="P46:T47"/>
+    <mergeCell ref="B48:I49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="P48:T49"/>
+    <mergeCell ref="O40:T40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O42:T42"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:M38"/>
+    <mergeCell ref="O37:T39"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:O30"/>
+    <mergeCell ref="B28:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="R27:S30"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="R34:S34"/>
     <mergeCell ref="D25:L26"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="N25:O26"/>
@@ -2906,122 +2994,34 @@
     <mergeCell ref="J23:L24"/>
     <mergeCell ref="M23:M24"/>
     <mergeCell ref="N23:O24"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:M38"/>
-    <mergeCell ref="O37:T39"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:O30"/>
-    <mergeCell ref="B28:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="R27:S30"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="O40:T40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O42:T42"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="B46:I47"/>
-    <mergeCell ref="J46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="P46:T47"/>
-    <mergeCell ref="B48:I49"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:O49"/>
-    <mergeCell ref="P48:T49"/>
-    <mergeCell ref="B54:I55"/>
-    <mergeCell ref="J54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:T55"/>
-    <mergeCell ref="B50:I51"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="P50:T51"/>
-    <mergeCell ref="B52:I53"/>
-    <mergeCell ref="J52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="P52:T53"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:M69"/>
-    <mergeCell ref="O68:T70"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="B59:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="T58:T61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R58:S61"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="O71:T71"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="O72:T72"/>
-    <mergeCell ref="O73:T73"/>
-    <mergeCell ref="O74:T74"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:O84"/>
-    <mergeCell ref="P83:T84"/>
-    <mergeCell ref="B77:I78"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:T78"/>
-    <mergeCell ref="B79:I80"/>
-    <mergeCell ref="J79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:T80"/>
-    <mergeCell ref="B81:I82"/>
-    <mergeCell ref="J81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:O82"/>
-    <mergeCell ref="P81:T82"/>
-    <mergeCell ref="B83:I84"/>
-    <mergeCell ref="J83:L84"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="N90:O91"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:O93"/>
-    <mergeCell ref="B85:I86"/>
-    <mergeCell ref="J85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:O86"/>
-    <mergeCell ref="P85:T86"/>
-    <mergeCell ref="B91:I92"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="B87:C89"/>
-    <mergeCell ref="D87:L89"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="N87:O89"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="S89:T93"/>
+    <mergeCell ref="P15:T16"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="P17:T18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="B15:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M7"/>
+    <mergeCell ref="O6:T8"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/KATO/Template/A0020_UriageInput.xlsx
+++ b/KATO/Template/A0020_UriageInput.xlsx
@@ -535,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,86 +588,197 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -676,115 +787,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1151,49 +1154,49 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
       <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
@@ -1203,85 +1206,85 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
     </row>
     <row r="10" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="O10" s="20" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="O10" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O11" s="20" t="s">
+      <c r="O11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
     </row>
     <row r="13" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -1307,276 +1310,276 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="38" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="38" t="s">
+      <c r="O14" s="67"/>
+      <c r="P14" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="40"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="67"/>
     </row>
     <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="39"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="33"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="42"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="39"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="29"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="42"/>
     </row>
     <row r="21" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="39"/>
     </row>
     <row r="22" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="42"/>
     </row>
     <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="33"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="29"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="42"/>
     </row>
     <row r="25" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="48" t="s">
+      <c r="C25" s="52"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="56"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -1585,26 +1588,26 @@
     </row>
     <row r="26" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="53"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="60"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="55" t="s">
+      <c r="R26" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="56"/>
+      <c r="S26" s="72"/>
       <c r="T26" s="17" t="s">
         <v>12</v>
       </c>
@@ -1614,84 +1617,84 @@
       <c r="J27" s="7"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="48" t="s">
+      <c r="M27" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="50"/>
-      <c r="O27" s="51"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="56"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="70"/>
-      <c r="T27" s="57"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="70"/>
     </row>
     <row r="28" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="62"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
       <c r="J28" s="7"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="53"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="60"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="57"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="70"/>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="65"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="7"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="58" t="s">
+      <c r="M29" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="57"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="76"/>
+      <c r="T29" s="70"/>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
       <c r="J30" s="7"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="57"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="70"/>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1731,51 +1734,51 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="80"/>
       <c r="T34" s="13"/>
     </row>
     <row r="35" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
     </row>
     <row r="36" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22" t="s">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
     </row>
     <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
@@ -1785,85 +1788,85 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O40" s="20" t="s">
+      <c r="O40" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
     </row>
     <row r="41" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="O41" s="20" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="O41" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O42" s="20" t="s">
+      <c r="O42" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="O43" s="20" t="s">
+      <c r="O43" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
     </row>
     <row r="44" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
@@ -1889,276 +1892,276 @@
     </row>
     <row r="45" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="38" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="39"/>
-      <c r="L45" s="40"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="67"/>
       <c r="M45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="38" t="s">
+      <c r="N45" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O45" s="40"/>
-      <c r="P45" s="38" t="s">
+      <c r="O45" s="67"/>
+      <c r="P45" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="39"/>
-      <c r="S45" s="39"/>
-      <c r="T45" s="40"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="67"/>
     </row>
     <row r="46" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="39"/>
     </row>
     <row r="47" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="33"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="29"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="42"/>
     </row>
     <row r="48" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="39"/>
     </row>
     <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="33"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="34"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="29"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="42"/>
     </row>
     <row r="50" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="25"/>
-      <c r="T50" s="26"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+      <c r="T50" s="39"/>
     </row>
     <row r="51" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="33"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="29"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="42"/>
     </row>
     <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="26"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+      <c r="T52" s="39"/>
     </row>
     <row r="53" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="33"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="34"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="28"/>
-      <c r="T53" s="29"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="42"/>
     </row>
     <row r="54" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+      <c r="T54" s="39"/>
     </row>
     <row r="55" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="33"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="22"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="29"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="42"/>
     </row>
     <row r="56" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="48" t="s">
+      <c r="C56" s="52"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N56" s="50"/>
-      <c r="O56" s="51"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="56"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -2167,26 +2170,26 @@
     </row>
     <row r="57" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="52"/>
-      <c r="O57" s="53"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="60"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="55" t="s">
+      <c r="R57" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="S57" s="56"/>
+      <c r="S57" s="72"/>
       <c r="T57" s="17" t="s">
         <v>12</v>
       </c>
@@ -2196,84 +2199,84 @@
       <c r="J58" s="7"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="48" t="s">
+      <c r="M58" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="30"/>
-      <c r="O58" s="32"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="21"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="57"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="70"/>
     </row>
     <row r="59" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="62"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="45"/>
       <c r="J59" s="7"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="35"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="23"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="71"/>
-      <c r="S59" s="72"/>
-      <c r="T59" s="57"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="76"/>
+      <c r="T59" s="70"/>
     </row>
     <row r="60" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="65"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="48"/>
       <c r="J60" s="7"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="58" t="s">
+      <c r="M60" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N60" s="77"/>
-      <c r="O60" s="77"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="71"/>
-      <c r="S60" s="72"/>
-      <c r="T60" s="57"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="70"/>
     </row>
     <row r="61" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="68"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="51"/>
       <c r="J61" s="7"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="77"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="73"/>
-      <c r="S61" s="74"/>
-      <c r="T61" s="57"/>
+      <c r="R61" s="77"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="70"/>
     </row>
     <row r="63" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J63" s="2"/>
@@ -2291,49 +2294,49 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
       <c r="T65" s="13"/>
     </row>
     <row r="66" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
     </row>
     <row r="67" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="63"/>
+      <c r="T68" s="63"/>
     </row>
     <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3"/>
@@ -2343,85 +2346,85 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+      <c r="T69" s="63"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="63"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O71" s="20" t="s">
+      <c r="O71" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="63"/>
     </row>
     <row r="72" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="O72" s="20" t="s">
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="O72" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="63"/>
+      <c r="S72" s="63"/>
+      <c r="T72" s="63"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O73" s="20" t="s">
+      <c r="O73" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="63"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N74" s="3"/>
-      <c r="O74" s="20" t="s">
+      <c r="O74" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
+      <c r="P74" s="63"/>
+      <c r="Q74" s="63"/>
+      <c r="R74" s="63"/>
+      <c r="S74" s="63"/>
+      <c r="T74" s="63"/>
     </row>
     <row r="75" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
@@ -2447,276 +2450,276 @@
     </row>
     <row r="76" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="38" t="s">
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="39"/>
-      <c r="L76" s="40"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="67"/>
       <c r="M76" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="38" t="s">
+      <c r="N76" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O76" s="40"/>
-      <c r="P76" s="38" t="s">
+      <c r="O76" s="67"/>
+      <c r="P76" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39"/>
-      <c r="T76" s="40"/>
+      <c r="Q76" s="66"/>
+      <c r="R76" s="66"/>
+      <c r="S76" s="66"/>
+      <c r="T76" s="67"/>
     </row>
     <row r="77" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="25"/>
-      <c r="S77" s="25"/>
-      <c r="T77" s="26"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="35"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="38"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="39"/>
     </row>
     <row r="78" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="33"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="22"/>
       <c r="K78" s="34"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="29"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="23"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="42"/>
     </row>
     <row r="79" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="25"/>
-      <c r="S79" s="25"/>
-      <c r="T79" s="26"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="35"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="38"/>
+      <c r="R79" s="38"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="39"/>
     </row>
     <row r="80" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="33"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="22"/>
       <c r="K80" s="34"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="29"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="41"/>
+      <c r="T80" s="42"/>
     </row>
     <row r="81" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="75"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="25"/>
-      <c r="S81" s="25"/>
-      <c r="T81" s="26"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="38"/>
+      <c r="R81" s="38"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="39"/>
     </row>
     <row r="82" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="33"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="22"/>
       <c r="K82" s="34"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="28"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="28"/>
-      <c r="T82" s="29"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="42"/>
     </row>
     <row r="83" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="36"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="32"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="25"/>
-      <c r="S83" s="25"/>
-      <c r="T83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="38"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="39"/>
     </row>
     <row r="84" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="33"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="22"/>
       <c r="K84" s="34"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="35"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
-      <c r="T84" s="29"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="23"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="42"/>
     </row>
     <row r="85" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="32"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="32"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="25"/>
-      <c r="S85" s="25"/>
-      <c r="T85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="35"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="38"/>
+      <c r="R85" s="38"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="39"/>
     </row>
     <row r="86" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="33"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="22"/>
       <c r="K86" s="34"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="28"/>
-      <c r="R86" s="28"/>
-      <c r="S86" s="28"/>
-      <c r="T86" s="29"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="40"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="42"/>
     </row>
     <row r="87" spans="1:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="54"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="47"/>
-      <c r="K87" s="47"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="48" t="s">
+      <c r="C87" s="52"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="53"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="53"/>
+      <c r="K87" s="53"/>
+      <c r="L87" s="53"/>
+      <c r="M87" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N87" s="50"/>
-      <c r="O87" s="51"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="56"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
@@ -2725,252 +2728,164 @@
     </row>
     <row r="88" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="79"/>
-      <c r="N88" s="80"/>
-      <c r="O88" s="81"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="53"/>
+      <c r="I88" s="53"/>
+      <c r="J88" s="53"/>
+      <c r="K88" s="53"/>
+      <c r="L88" s="53"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="57"/>
+      <c r="O88" s="58"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-      <c r="S88" s="82" t="s">
+      <c r="S88" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="T88" s="82"/>
+      <c r="T88" s="61"/>
     </row>
     <row r="89" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="47"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="49"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="53"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="60"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-      <c r="S89" s="83"/>
-      <c r="T89" s="83"/>
+      <c r="S89" s="62"/>
+      <c r="T89" s="62"/>
     </row>
     <row r="90" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8"/>
       <c r="J90" s="7"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
-      <c r="M90" s="48" t="s">
+      <c r="M90" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N90" s="30"/>
-      <c r="O90" s="32"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="21"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="6"/>
-      <c r="S90" s="83"/>
-      <c r="T90" s="83"/>
+      <c r="S90" s="62"/>
+      <c r="T90" s="62"/>
     </row>
     <row r="91" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="62"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="45"/>
       <c r="J91" s="7"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
-      <c r="M91" s="49"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="35"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="23"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="5"/>
-      <c r="R91" s="78"/>
-      <c r="S91" s="83"/>
-      <c r="T91" s="83"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="62"/>
+      <c r="T91" s="62"/>
     </row>
     <row r="92" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
-      <c r="B92" s="63"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="65"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="48"/>
       <c r="J92" s="7"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
-      <c r="M92" s="58" t="s">
+      <c r="M92" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N92" s="77"/>
-      <c r="O92" s="77"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="26"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="5"/>
-      <c r="R92" s="78"/>
-      <c r="S92" s="83"/>
-      <c r="T92" s="83"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="62"/>
+      <c r="T92" s="62"/>
     </row>
     <row r="93" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="68"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="51"/>
       <c r="J93" s="7"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="77"/>
-      <c r="O93" s="77"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="26"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="5"/>
-      <c r="R93" s="78"/>
-      <c r="S93" s="83"/>
-      <c r="T93" s="83"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="62"/>
+      <c r="T93" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="N90:O91"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:O93"/>
-    <mergeCell ref="B85:I86"/>
-    <mergeCell ref="J85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:O86"/>
-    <mergeCell ref="P85:T86"/>
-    <mergeCell ref="B91:I92"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="B87:C89"/>
-    <mergeCell ref="D87:L89"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="N87:O89"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="S89:T93"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:O84"/>
-    <mergeCell ref="P83:T84"/>
-    <mergeCell ref="B77:I78"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:T78"/>
-    <mergeCell ref="B79:I80"/>
-    <mergeCell ref="J79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:T80"/>
-    <mergeCell ref="B81:I82"/>
-    <mergeCell ref="J81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:O82"/>
-    <mergeCell ref="P81:T82"/>
-    <mergeCell ref="B83:I84"/>
-    <mergeCell ref="J83:L84"/>
-    <mergeCell ref="O71:T71"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="O72:T72"/>
-    <mergeCell ref="O73:T73"/>
-    <mergeCell ref="O74:T74"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:M69"/>
-    <mergeCell ref="O68:T70"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="B59:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="T58:T61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R58:S61"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="B54:I55"/>
-    <mergeCell ref="J54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:T55"/>
-    <mergeCell ref="B50:I51"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="P50:T51"/>
-    <mergeCell ref="B52:I53"/>
-    <mergeCell ref="J52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="P52:T53"/>
-    <mergeCell ref="B46:I47"/>
-    <mergeCell ref="J46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="P46:T47"/>
-    <mergeCell ref="B48:I49"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:O49"/>
-    <mergeCell ref="P48:T49"/>
-    <mergeCell ref="O40:T40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O42:T42"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:M38"/>
-    <mergeCell ref="O37:T39"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:O30"/>
-    <mergeCell ref="B28:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="R27:S30"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M7"/>
+    <mergeCell ref="O6:T8"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="P15:T16"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="P17:T18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="B15:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="D25:L26"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="N25:O26"/>
@@ -2994,34 +2909,122 @@
     <mergeCell ref="J23:L24"/>
     <mergeCell ref="M23:M24"/>
     <mergeCell ref="N23:O24"/>
-    <mergeCell ref="P15:T16"/>
-    <mergeCell ref="J17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="P17:T18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="B15:H16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M7"/>
-    <mergeCell ref="O6:T8"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:M38"/>
+    <mergeCell ref="O37:T39"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:O30"/>
+    <mergeCell ref="B28:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="R27:S30"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="O40:T40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O42:T42"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="B46:I47"/>
+    <mergeCell ref="J46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="P46:T47"/>
+    <mergeCell ref="B48:I49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="P48:T49"/>
+    <mergeCell ref="B54:I55"/>
+    <mergeCell ref="J54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:T55"/>
+    <mergeCell ref="B50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="P50:T51"/>
+    <mergeCell ref="B52:I53"/>
+    <mergeCell ref="J52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="P52:T53"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:M69"/>
+    <mergeCell ref="O68:T70"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="B59:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="T58:T61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S61"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="O71:T71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="O72:T72"/>
+    <mergeCell ref="O73:T73"/>
+    <mergeCell ref="O74:T74"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:O84"/>
+    <mergeCell ref="P83:T84"/>
+    <mergeCell ref="B77:I78"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:T78"/>
+    <mergeCell ref="B79:I80"/>
+    <mergeCell ref="J79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:T80"/>
+    <mergeCell ref="B81:I82"/>
+    <mergeCell ref="J81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:O82"/>
+    <mergeCell ref="P81:T82"/>
+    <mergeCell ref="B83:I84"/>
+    <mergeCell ref="J83:L84"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="N90:O91"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:O93"/>
+    <mergeCell ref="B85:I86"/>
+    <mergeCell ref="J85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:O86"/>
+    <mergeCell ref="P85:T86"/>
+    <mergeCell ref="B91:I92"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="B87:C89"/>
+    <mergeCell ref="D87:L89"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="N87:O89"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="S89:T93"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/KATO/Template/A0020_UriageInput.xlsx
+++ b/KATO/Template/A0020_UriageInput.xlsx
@@ -535,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,206 +588,203 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,49 +1151,49 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
@@ -1206,85 +1203,85 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O9" s="63" t="s">
+      <c r="O9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="O10" s="63" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="O10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="63"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O11" s="63" t="s">
+      <c r="O11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="63"/>
-      <c r="S11" s="63"/>
-      <c r="T11" s="63"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="63" t="s">
+      <c r="O12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
@@ -1310,276 +1307,276 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="65" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="67"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="65" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="67"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="39"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="22"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="34"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="42"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="39"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="22"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="42"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="39"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="22"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="22"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="29"/>
     </row>
     <row r="23" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="39"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="26"/>
     </row>
     <row r="24" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="22"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="34"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="29"/>
     </row>
     <row r="25" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="18" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="55"/>
-      <c r="O25" s="56"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -1588,26 +1585,26 @@
     </row>
     <row r="26" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="5"/>
-      <c r="R26" s="71" t="s">
+      <c r="R26" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="S26" s="72"/>
+      <c r="S26" s="56"/>
       <c r="T26" s="17" t="s">
         <v>12</v>
       </c>
@@ -1617,84 +1614,84 @@
       <c r="J27" s="7"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="18" t="s">
+      <c r="M27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="55"/>
-      <c r="O27" s="56"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="70"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="57"/>
     </row>
     <row r="28" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="7"/>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="60"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="53"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="5"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="70"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="57"/>
     </row>
     <row r="29" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="65"/>
       <c r="J29" s="7"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="76"/>
-      <c r="T29" s="70"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="57"/>
     </row>
     <row r="30" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="7"/>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="81"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="70"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="57"/>
     </row>
     <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1734,51 +1731,51 @@
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="79" t="s">
+      <c r="H34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
       <c r="Q34" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R34" s="80"/>
-      <c r="S34" s="80"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
       <c r="T34" s="13"/>
     </row>
     <row r="35" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="68" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
     </row>
     <row r="38" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
@@ -1788,85 +1785,85 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O40" s="63" t="s">
+      <c r="O40" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="63"/>
-      <c r="T40" s="63"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
     </row>
     <row r="41" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="O41" s="63" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="O41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O42" s="63" t="s">
+      <c r="O42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N43" s="3"/>
-      <c r="O43" s="63" t="s">
+      <c r="O43" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="63"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
     </row>
     <row r="44" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
@@ -1892,276 +1889,276 @@
     </row>
     <row r="45" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="65" t="s">
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="66"/>
-      <c r="L45" s="67"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="40"/>
       <c r="M45" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N45" s="65" t="s">
+      <c r="N45" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O45" s="67"/>
-      <c r="P45" s="65" t="s">
+      <c r="O45" s="40"/>
+      <c r="P45" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="67"/>
+      <c r="Q45" s="39"/>
+      <c r="R45" s="39"/>
+      <c r="S45" s="39"/>
+      <c r="T45" s="40"/>
     </row>
     <row r="46" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="39"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="26"/>
     </row>
     <row r="47" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="22"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="34"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="42"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="29"/>
     </row>
     <row r="48" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="39"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="26"/>
     </row>
     <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="22"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="33"/>
       <c r="K49" s="34"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="42"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="29"/>
     </row>
     <row r="50" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="39"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="22"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="33"/>
       <c r="K51" s="34"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="41"/>
-      <c r="T51" s="42"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="29"/>
     </row>
     <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="39"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="26"/>
     </row>
     <row r="53" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="22"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="33"/>
       <c r="K53" s="34"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="36"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="42"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="29"/>
     </row>
     <row r="54" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="39"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="26"/>
     </row>
     <row r="55" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="22"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="33"/>
       <c r="K55" s="34"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="36"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="42"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="29"/>
     </row>
     <row r="56" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8"/>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="18" t="s">
+      <c r="C56" s="54"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="47"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N56" s="55"/>
-      <c r="O56" s="56"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="51"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
@@ -2170,26 +2167,26 @@
     </row>
     <row r="57" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="60"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="52"/>
+      <c r="O57" s="53"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="71" t="s">
+      <c r="R57" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="S57" s="72"/>
+      <c r="S57" s="56"/>
       <c r="T57" s="17" t="s">
         <v>12</v>
       </c>
@@ -2199,84 +2196,84 @@
       <c r="J58" s="7"/>
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
-      <c r="M58" s="18" t="s">
+      <c r="M58" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="20"/>
-      <c r="O58" s="21"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="32"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="74"/>
-      <c r="T58" s="70"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="70"/>
+      <c r="T58" s="57"/>
     </row>
     <row r="59" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="45"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="62"/>
       <c r="J59" s="7"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="23"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="35"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="75"/>
-      <c r="S59" s="76"/>
-      <c r="T59" s="70"/>
+      <c r="R59" s="71"/>
+      <c r="S59" s="72"/>
+      <c r="T59" s="57"/>
     </row>
     <row r="60" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="65"/>
       <c r="J60" s="7"/>
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
-      <c r="M60" s="25" t="s">
+      <c r="M60" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="75"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="70"/>
+      <c r="R60" s="71"/>
+      <c r="S60" s="72"/>
+      <c r="T60" s="57"/>
     </row>
     <row r="61" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="51"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
+      <c r="H61" s="67"/>
+      <c r="I61" s="68"/>
       <c r="J61" s="7"/>
       <c r="K61" s="10"/>
       <c r="L61" s="10"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="77"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="77"/>
-      <c r="S61" s="78"/>
-      <c r="T61" s="70"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="57"/>
     </row>
     <row r="63" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J63" s="2"/>
@@ -2294,49 +2291,49 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="79" t="s">
+      <c r="H65" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="79"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="79"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
       <c r="Q65" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="R65" s="80"/>
-      <c r="S65" s="80"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
       <c r="T65" s="13"/>
     </row>
     <row r="66" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" spans="1:20" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="68" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="63"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
     </row>
     <row r="69" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3"/>
@@ -2346,85 +2343,85 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="63"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="63"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O71" s="63" t="s">
+      <c r="O71" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="63"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
     </row>
     <row r="72" spans="1:20" ht="13.5" x14ac:dyDescent="0.4">
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="O72" s="63" t="s">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="O72" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="P72" s="63"/>
-      <c r="Q72" s="63"/>
-      <c r="R72" s="63"/>
-      <c r="S72" s="63"/>
-      <c r="T72" s="63"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="O73" s="63" t="s">
+      <c r="O73" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="63"/>
-      <c r="T73" s="63"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N74" s="3"/>
-      <c r="O74" s="63" t="s">
+      <c r="O74" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P74" s="63"/>
-      <c r="Q74" s="63"/>
-      <c r="R74" s="63"/>
-      <c r="S74" s="63"/>
-      <c r="T74" s="63"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
     </row>
     <row r="75" spans="1:20" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
@@ -2450,276 +2447,276 @@
     </row>
     <row r="76" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="65" t="s">
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="66"/>
-      <c r="L76" s="67"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="40"/>
       <c r="M76" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="65" t="s">
+      <c r="N76" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O76" s="67"/>
-      <c r="P76" s="65" t="s">
+      <c r="O76" s="40"/>
+      <c r="P76" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q76" s="66"/>
-      <c r="R76" s="66"/>
-      <c r="S76" s="66"/>
-      <c r="T76" s="67"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="40"/>
     </row>
     <row r="77" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="37"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="39"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="26"/>
     </row>
     <row r="78" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="22"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="33"/>
       <c r="K78" s="34"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="42"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="28"/>
+      <c r="S78" s="28"/>
+      <c r="T78" s="29"/>
     </row>
     <row r="79" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="37"/>
-      <c r="Q79" s="38"/>
-      <c r="R79" s="38"/>
-      <c r="S79" s="38"/>
-      <c r="T79" s="39"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="26"/>
     </row>
     <row r="80" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="22"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="76"/>
+      <c r="J80" s="33"/>
       <c r="K80" s="34"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="36"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="41"/>
-      <c r="S80" s="41"/>
-      <c r="T80" s="42"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="29"/>
     </row>
     <row r="81" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="21"/>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="38"/>
-      <c r="R81" s="38"/>
-      <c r="S81" s="38"/>
-      <c r="T81" s="39"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="26"/>
     </row>
     <row r="82" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="22"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="76"/>
+      <c r="J82" s="33"/>
       <c r="K82" s="34"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="36"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="41"/>
-      <c r="R82" s="41"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="42"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="28"/>
+      <c r="S82" s="28"/>
+      <c r="T82" s="29"/>
     </row>
     <row r="83" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="35"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="21"/>
-      <c r="P83" s="37"/>
-      <c r="Q83" s="38"/>
-      <c r="R83" s="38"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="39"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="26"/>
     </row>
     <row r="84" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="22"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="76"/>
+      <c r="J84" s="33"/>
       <c r="K84" s="34"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="41"/>
-      <c r="S84" s="41"/>
-      <c r="T84" s="42"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="28"/>
+      <c r="S84" s="28"/>
+      <c r="T84" s="29"/>
     </row>
     <row r="85" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="35"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="37"/>
-      <c r="Q85" s="38"/>
-      <c r="R85" s="38"/>
-      <c r="S85" s="38"/>
-      <c r="T85" s="39"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="26"/>
     </row>
     <row r="86" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="22"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="76"/>
+      <c r="J86" s="33"/>
       <c r="K86" s="34"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="36"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="40"/>
-      <c r="Q86" s="41"/>
-      <c r="R86" s="41"/>
-      <c r="S86" s="41"/>
-      <c r="T86" s="42"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="28"/>
+      <c r="S86" s="28"/>
+      <c r="T86" s="29"/>
     </row>
     <row r="87" spans="1:20" ht="4.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8"/>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="52"/>
-      <c r="D87" s="53"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="53"/>
-      <c r="I87" s="53"/>
-      <c r="J87" s="53"/>
-      <c r="K87" s="53"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="18" t="s">
+      <c r="C87" s="54"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47"/>
+      <c r="F87" s="47"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="47"/>
+      <c r="I87" s="47"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N87" s="55"/>
-      <c r="O87" s="56"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="51"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
@@ -2728,164 +2725,252 @@
     </row>
     <row r="88" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="53"/>
-      <c r="I88" s="53"/>
-      <c r="J88" s="53"/>
-      <c r="K88" s="53"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="58"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="79"/>
+      <c r="N88" s="80"/>
+      <c r="O88" s="81"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
-      <c r="S88" s="61" t="s">
+      <c r="S88" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="T88" s="61"/>
+      <c r="T88" s="82"/>
     </row>
     <row r="89" spans="1:20" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53"/>
-      <c r="E89" s="53"/>
-      <c r="F89" s="53"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="53"/>
-      <c r="I89" s="53"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="53"/>
-      <c r="L89" s="53"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="60"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="52"/>
+      <c r="O89" s="53"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-      <c r="S89" s="62"/>
-      <c r="T89" s="62"/>
+      <c r="S89" s="83"/>
+      <c r="T89" s="83"/>
     </row>
     <row r="90" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8"/>
       <c r="J90" s="7"/>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
-      <c r="M90" s="18" t="s">
+      <c r="M90" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N90" s="20"/>
-      <c r="O90" s="21"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="32"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="6"/>
-      <c r="S90" s="62"/>
-      <c r="T90" s="62"/>
+      <c r="S90" s="83"/>
+      <c r="T90" s="83"/>
     </row>
     <row r="91" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="45"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="62"/>
       <c r="J91" s="7"/>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="23"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="35"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="5"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="62"/>
-      <c r="T91" s="62"/>
+      <c r="R91" s="78"/>
+      <c r="S91" s="83"/>
+      <c r="T91" s="83"/>
     </row>
     <row r="92" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="48"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="65"/>
       <c r="J92" s="7"/>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
-      <c r="M92" s="25" t="s">
+      <c r="M92" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
+      <c r="N92" s="77"/>
+      <c r="O92" s="77"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="5"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="62"/>
-      <c r="T92" s="62"/>
+      <c r="R92" s="78"/>
+      <c r="S92" s="83"/>
+      <c r="T92" s="83"/>
     </row>
     <row r="93" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="50"/>
-      <c r="I93" s="51"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
+      <c r="H93" s="67"/>
+      <c r="I93" s="68"/>
       <c r="J93" s="7"/>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="5"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="62"/>
-      <c r="T93" s="62"/>
+      <c r="R93" s="78"/>
+      <c r="S93" s="83"/>
+      <c r="T93" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="167">
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="O11:T11"/>
-    <mergeCell ref="O12:T12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:M7"/>
-    <mergeCell ref="O6:T8"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="P15:T16"/>
-    <mergeCell ref="J17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="P17:T18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="J15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:O16"/>
-    <mergeCell ref="B15:H16"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="N90:O91"/>
+    <mergeCell ref="R91:R93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:O93"/>
+    <mergeCell ref="B85:I86"/>
+    <mergeCell ref="J85:L86"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="N85:O86"/>
+    <mergeCell ref="P85:T86"/>
+    <mergeCell ref="B91:I92"/>
+    <mergeCell ref="B93:I93"/>
+    <mergeCell ref="B87:C89"/>
+    <mergeCell ref="D87:L89"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="N87:O89"/>
+    <mergeCell ref="S88:T88"/>
+    <mergeCell ref="S89:T93"/>
+    <mergeCell ref="M83:M84"/>
+    <mergeCell ref="N83:O84"/>
+    <mergeCell ref="P83:T84"/>
+    <mergeCell ref="B77:I78"/>
+    <mergeCell ref="J77:L78"/>
+    <mergeCell ref="M77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:T78"/>
+    <mergeCell ref="B79:I80"/>
+    <mergeCell ref="J79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="P79:T80"/>
+    <mergeCell ref="B81:I82"/>
+    <mergeCell ref="J81:L82"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="N81:O82"/>
+    <mergeCell ref="P81:T82"/>
+    <mergeCell ref="B83:I84"/>
+    <mergeCell ref="J83:L84"/>
+    <mergeCell ref="O71:T71"/>
+    <mergeCell ref="B72:I72"/>
+    <mergeCell ref="O72:T72"/>
+    <mergeCell ref="O73:T73"/>
+    <mergeCell ref="O74:T74"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:O57"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:M69"/>
+    <mergeCell ref="O68:T70"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="N58:O59"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:O61"/>
+    <mergeCell ref="B59:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="T58:T61"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S61"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="B54:I55"/>
+    <mergeCell ref="J54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:O55"/>
+    <mergeCell ref="P54:T55"/>
+    <mergeCell ref="B50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="P50:T51"/>
+    <mergeCell ref="B52:I53"/>
+    <mergeCell ref="J52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:O53"/>
+    <mergeCell ref="P52:T53"/>
+    <mergeCell ref="B46:I47"/>
+    <mergeCell ref="J46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="P46:T47"/>
+    <mergeCell ref="B48:I49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="P48:T49"/>
+    <mergeCell ref="O40:T40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="O41:T41"/>
+    <mergeCell ref="O42:T42"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="T27:T30"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:M38"/>
+    <mergeCell ref="O37:T39"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:O30"/>
+    <mergeCell ref="B28:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="R27:S30"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="R34:S34"/>
     <mergeCell ref="D25:L26"/>
     <mergeCell ref="M25:M26"/>
     <mergeCell ref="N25:O26"/>
@@ -2909,122 +2994,34 @@
     <mergeCell ref="J23:L24"/>
     <mergeCell ref="M23:M24"/>
     <mergeCell ref="N23:O24"/>
-    <mergeCell ref="T27:T30"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:M38"/>
-    <mergeCell ref="O37:T39"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:O30"/>
-    <mergeCell ref="B28:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="R27:S30"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="O40:T40"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="O41:T41"/>
-    <mergeCell ref="O42:T42"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="B46:I47"/>
-    <mergeCell ref="J46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="P46:T47"/>
-    <mergeCell ref="B48:I49"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="N48:O49"/>
-    <mergeCell ref="P48:T49"/>
-    <mergeCell ref="B54:I55"/>
-    <mergeCell ref="J54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:O55"/>
-    <mergeCell ref="P54:T55"/>
-    <mergeCell ref="B50:I51"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="P50:T51"/>
-    <mergeCell ref="B52:I53"/>
-    <mergeCell ref="J52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:O53"/>
-    <mergeCell ref="P52:T53"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:O57"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:M69"/>
-    <mergeCell ref="O68:T70"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="N58:O59"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:O61"/>
-    <mergeCell ref="B59:I60"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="T58:T61"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="R58:S61"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="O71:T71"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="O72:T72"/>
-    <mergeCell ref="O73:T73"/>
-    <mergeCell ref="O74:T74"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="M83:M84"/>
-    <mergeCell ref="N83:O84"/>
-    <mergeCell ref="P83:T84"/>
-    <mergeCell ref="B77:I78"/>
-    <mergeCell ref="J77:L78"/>
-    <mergeCell ref="M77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:T78"/>
-    <mergeCell ref="B79:I80"/>
-    <mergeCell ref="J79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="P79:T80"/>
-    <mergeCell ref="B81:I82"/>
-    <mergeCell ref="J81:L82"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="N81:O82"/>
-    <mergeCell ref="P81:T82"/>
-    <mergeCell ref="B83:I84"/>
-    <mergeCell ref="J83:L84"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="N90:O91"/>
-    <mergeCell ref="R91:R93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:O93"/>
-    <mergeCell ref="B85:I86"/>
-    <mergeCell ref="J85:L86"/>
-    <mergeCell ref="M85:M86"/>
-    <mergeCell ref="N85:O86"/>
-    <mergeCell ref="P85:T86"/>
-    <mergeCell ref="B91:I92"/>
-    <mergeCell ref="B93:I93"/>
-    <mergeCell ref="B87:C89"/>
-    <mergeCell ref="D87:L89"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="N87:O89"/>
-    <mergeCell ref="S88:T88"/>
-    <mergeCell ref="S89:T93"/>
+    <mergeCell ref="P15:T16"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="P17:T18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:O16"/>
+    <mergeCell ref="B15:H16"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="O11:T11"/>
+    <mergeCell ref="O12:T12"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:M7"/>
+    <mergeCell ref="O6:T8"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
